--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_250.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_250.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33047-d779170-Reviews-Embassy_Suites_by_Hilton_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>992</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1008</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Embassy-Suites-By-Hilton-Valencia-Downtown.h1747235.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_250.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_250.xlsx
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">Great stay. Clean. Food was okay but not the quality and variety of other Embassy Suites I've been to.  The rooms were comfortable updated and clean. The proximity to six flags is not really walkable but close enough for a short drive.  Restaurants in the area are a short drive. </t>
   </si>
   <si>
-    <t>D8436FCdonnas</t>
+    <t>Donna S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d779170-r524537022-Embassy_Suites_by_Hilton_Valencia-Santa_Clarita_California.html</t>
@@ -4386,7 +4386,7 @@
     <t>We currently live in Arizona and stay at Embassy suites when ever we come back to California to visit our son &amp; grandkids.  Love the breakfast especially the omelette . Close to freeway for everything, but not noisyMore</t>
   </si>
   <si>
-    <t>jennifercE7241EU</t>
+    <t>Jennifer C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d779170-r364178006-Embassy_Suites_by_Hilton_Valencia-Santa_Clarita_California.html</t>
@@ -13171,7 +13171,7 @@
         <v>56150</v>
       </c>
       <c r="B2" t="n">
-        <v>146006</v>
+        <v>177324</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -13242,7 +13242,7 @@
         <v>56150</v>
       </c>
       <c r="B3" t="n">
-        <v>146007</v>
+        <v>177325</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -13313,7 +13313,7 @@
         <v>56150</v>
       </c>
       <c r="B4" t="n">
-        <v>146008</v>
+        <v>177326</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -13384,7 +13384,7 @@
         <v>56150</v>
       </c>
       <c r="B5" t="n">
-        <v>146009</v>
+        <v>177327</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -13455,7 +13455,7 @@
         <v>56150</v>
       </c>
       <c r="B6" t="n">
-        <v>146010</v>
+        <v>177328</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -13526,7 +13526,7 @@
         <v>56150</v>
       </c>
       <c r="B7" t="n">
-        <v>146011</v>
+        <v>177329</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
@@ -13587,7 +13587,7 @@
         <v>56150</v>
       </c>
       <c r="B8" t="n">
-        <v>146012</v>
+        <v>177330</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -13658,7 +13658,7 @@
         <v>56150</v>
       </c>
       <c r="B9" t="n">
-        <v>146013</v>
+        <v>177331</v>
       </c>
       <c r="C9" t="s">
         <v>96</v>
@@ -13796,7 +13796,7 @@
         <v>56150</v>
       </c>
       <c r="B11" t="n">
-        <v>146014</v>
+        <v>177332</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
@@ -13914,7 +13914,7 @@
         <v>56150</v>
       </c>
       <c r="B13" t="n">
-        <v>146015</v>
+        <v>177333</v>
       </c>
       <c r="C13" t="s">
         <v>122</v>
@@ -13985,7 +13985,7 @@
         <v>56150</v>
       </c>
       <c r="B14" t="n">
-        <v>146016</v>
+        <v>177334</v>
       </c>
       <c r="C14" t="s">
         <v>129</v>
@@ -14056,7 +14056,7 @@
         <v>56150</v>
       </c>
       <c r="B15" t="n">
-        <v>146017</v>
+        <v>177335</v>
       </c>
       <c r="C15" t="s">
         <v>135</v>
@@ -14127,7 +14127,7 @@
         <v>56150</v>
       </c>
       <c r="B16" t="n">
-        <v>146018</v>
+        <v>177336</v>
       </c>
       <c r="C16" t="s">
         <v>141</v>
@@ -14188,7 +14188,7 @@
         <v>56150</v>
       </c>
       <c r="B17" t="n">
-        <v>146019</v>
+        <v>177337</v>
       </c>
       <c r="C17" t="s">
         <v>147</v>
@@ -14259,7 +14259,7 @@
         <v>56150</v>
       </c>
       <c r="B18" t="n">
-        <v>146020</v>
+        <v>177338</v>
       </c>
       <c r="C18" t="s">
         <v>154</v>
@@ -14334,7 +14334,7 @@
         <v>56150</v>
       </c>
       <c r="B19" t="n">
-        <v>146021</v>
+        <v>177339</v>
       </c>
       <c r="C19" t="s">
         <v>163</v>
@@ -14470,7 +14470,7 @@
         <v>56150</v>
       </c>
       <c r="B21" t="n">
-        <v>146022</v>
+        <v>177340</v>
       </c>
       <c r="C21" t="s">
         <v>176</v>
@@ -14541,7 +14541,7 @@
         <v>56150</v>
       </c>
       <c r="B22" t="n">
-        <v>146023</v>
+        <v>177341</v>
       </c>
       <c r="C22" t="s">
         <v>182</v>
@@ -14612,7 +14612,7 @@
         <v>56150</v>
       </c>
       <c r="B23" t="n">
-        <v>146024</v>
+        <v>177342</v>
       </c>
       <c r="C23" t="s">
         <v>188</v>
@@ -14687,7 +14687,7 @@
         <v>56150</v>
       </c>
       <c r="B24" t="n">
-        <v>146025</v>
+        <v>177343</v>
       </c>
       <c r="C24" t="s">
         <v>197</v>
@@ -14762,7 +14762,7 @@
         <v>56150</v>
       </c>
       <c r="B25" t="n">
-        <v>146026</v>
+        <v>177344</v>
       </c>
       <c r="C25" t="s">
         <v>204</v>
@@ -14837,7 +14837,7 @@
         <v>56150</v>
       </c>
       <c r="B26" t="n">
-        <v>146027</v>
+        <v>177345</v>
       </c>
       <c r="C26" t="s">
         <v>212</v>
@@ -14908,7 +14908,7 @@
         <v>56150</v>
       </c>
       <c r="B27" t="n">
-        <v>146028</v>
+        <v>177346</v>
       </c>
       <c r="C27" t="s">
         <v>219</v>
@@ -14979,7 +14979,7 @@
         <v>56150</v>
       </c>
       <c r="B28" t="n">
-        <v>146029</v>
+        <v>177347</v>
       </c>
       <c r="C28" t="s">
         <v>225</v>
@@ -15050,7 +15050,7 @@
         <v>56150</v>
       </c>
       <c r="B29" t="n">
-        <v>146030</v>
+        <v>177348</v>
       </c>
       <c r="C29" t="s">
         <v>230</v>
@@ -15121,7 +15121,7 @@
         <v>56150</v>
       </c>
       <c r="B30" t="n">
-        <v>146031</v>
+        <v>177349</v>
       </c>
       <c r="C30" t="s">
         <v>236</v>
@@ -15263,7 +15263,7 @@
         <v>56150</v>
       </c>
       <c r="B32" t="n">
-        <v>146032</v>
+        <v>177350</v>
       </c>
       <c r="C32" t="s">
         <v>248</v>
@@ -15413,7 +15413,7 @@
         <v>56150</v>
       </c>
       <c r="B34" t="n">
-        <v>146033</v>
+        <v>177351</v>
       </c>
       <c r="C34" t="s">
         <v>265</v>
@@ -15488,7 +15488,7 @@
         <v>56150</v>
       </c>
       <c r="B35" t="n">
-        <v>146034</v>
+        <v>177352</v>
       </c>
       <c r="C35" t="s">
         <v>272</v>
@@ -15559,7 +15559,7 @@
         <v>56150</v>
       </c>
       <c r="B36" t="n">
-        <v>146035</v>
+        <v>177353</v>
       </c>
       <c r="C36" t="s">
         <v>278</v>
@@ -15701,7 +15701,7 @@
         <v>56150</v>
       </c>
       <c r="B38" t="n">
-        <v>146036</v>
+        <v>177354</v>
       </c>
       <c r="C38" t="s">
         <v>291</v>
@@ -15979,7 +15979,7 @@
         <v>56150</v>
       </c>
       <c r="B42" t="n">
-        <v>146037</v>
+        <v>177355</v>
       </c>
       <c r="C42" t="s">
         <v>317</v>
@@ -16046,7 +16046,7 @@
         <v>56150</v>
       </c>
       <c r="B43" t="n">
-        <v>146038</v>
+        <v>177356</v>
       </c>
       <c r="C43" t="s">
         <v>323</v>
@@ -16117,7 +16117,7 @@
         <v>56150</v>
       </c>
       <c r="B44" t="n">
-        <v>146039</v>
+        <v>177357</v>
       </c>
       <c r="C44" t="s">
         <v>329</v>
@@ -16259,7 +16259,7 @@
         <v>56150</v>
       </c>
       <c r="B46" t="n">
-        <v>146040</v>
+        <v>4740</v>
       </c>
       <c r="C46" t="s">
         <v>341</v>
@@ -16462,7 +16462,7 @@
         <v>56150</v>
       </c>
       <c r="B49" t="n">
-        <v>146041</v>
+        <v>177358</v>
       </c>
       <c r="C49" t="s">
         <v>361</v>
@@ -16523,7 +16523,7 @@
         <v>56150</v>
       </c>
       <c r="B50" t="n">
-        <v>146042</v>
+        <v>177359</v>
       </c>
       <c r="C50" t="s">
         <v>366</v>
@@ -16594,7 +16594,7 @@
         <v>56150</v>
       </c>
       <c r="B51" t="n">
-        <v>146043</v>
+        <v>177360</v>
       </c>
       <c r="C51" t="s">
         <v>372</v>
@@ -16736,7 +16736,7 @@
         <v>56150</v>
       </c>
       <c r="B53" t="n">
-        <v>146044</v>
+        <v>177361</v>
       </c>
       <c r="C53" t="s">
         <v>384</v>
@@ -16807,7 +16807,7 @@
         <v>56150</v>
       </c>
       <c r="B54" t="n">
-        <v>146045</v>
+        <v>177362</v>
       </c>
       <c r="C54" t="s">
         <v>390</v>
@@ -16878,7 +16878,7 @@
         <v>56150</v>
       </c>
       <c r="B55" t="n">
-        <v>146046</v>
+        <v>177363</v>
       </c>
       <c r="C55" t="s">
         <v>395</v>
@@ -16949,7 +16949,7 @@
         <v>56150</v>
       </c>
       <c r="B56" t="n">
-        <v>146047</v>
+        <v>177364</v>
       </c>
       <c r="C56" t="s">
         <v>400</v>
@@ -17020,7 +17020,7 @@
         <v>56150</v>
       </c>
       <c r="B57" t="n">
-        <v>146048</v>
+        <v>177365</v>
       </c>
       <c r="C57" t="s">
         <v>406</v>
@@ -17081,7 +17081,7 @@
         <v>56150</v>
       </c>
       <c r="B58" t="n">
-        <v>146049</v>
+        <v>177366</v>
       </c>
       <c r="C58" t="s">
         <v>412</v>
@@ -17209,7 +17209,7 @@
         <v>56150</v>
       </c>
       <c r="B60" t="n">
-        <v>146050</v>
+        <v>177367</v>
       </c>
       <c r="C60" t="s">
         <v>427</v>
@@ -17351,7 +17351,7 @@
         <v>56150</v>
       </c>
       <c r="B62" t="n">
-        <v>146051</v>
+        <v>177368</v>
       </c>
       <c r="C62" t="s">
         <v>438</v>
@@ -17422,7 +17422,7 @@
         <v>56150</v>
       </c>
       <c r="B63" t="n">
-        <v>146052</v>
+        <v>177369</v>
       </c>
       <c r="C63" t="s">
         <v>444</v>
@@ -17493,7 +17493,7 @@
         <v>56150</v>
       </c>
       <c r="B64" t="n">
-        <v>146053</v>
+        <v>177370</v>
       </c>
       <c r="C64" t="s">
         <v>450</v>
@@ -17564,7 +17564,7 @@
         <v>56150</v>
       </c>
       <c r="B65" t="n">
-        <v>146054</v>
+        <v>177371</v>
       </c>
       <c r="C65" t="s">
         <v>456</v>
@@ -17631,7 +17631,7 @@
         <v>56150</v>
       </c>
       <c r="B66" t="n">
-        <v>146055</v>
+        <v>177372</v>
       </c>
       <c r="C66" t="s">
         <v>462</v>
@@ -17692,7 +17692,7 @@
         <v>56150</v>
       </c>
       <c r="B67" t="n">
-        <v>146056</v>
+        <v>177373</v>
       </c>
       <c r="C67" t="s">
         <v>467</v>
@@ -17763,7 +17763,7 @@
         <v>56150</v>
       </c>
       <c r="B68" t="n">
-        <v>146057</v>
+        <v>177374</v>
       </c>
       <c r="C68" t="s">
         <v>473</v>
@@ -17834,7 +17834,7 @@
         <v>56150</v>
       </c>
       <c r="B69" t="n">
-        <v>146058</v>
+        <v>177375</v>
       </c>
       <c r="C69" t="s">
         <v>480</v>
@@ -17976,7 +17976,7 @@
         <v>56150</v>
       </c>
       <c r="B71" t="n">
-        <v>146059</v>
+        <v>177376</v>
       </c>
       <c r="C71" t="s">
         <v>492</v>
@@ -18047,7 +18047,7 @@
         <v>56150</v>
       </c>
       <c r="B72" t="n">
-        <v>146060</v>
+        <v>177377</v>
       </c>
       <c r="C72" t="s">
         <v>498</v>
@@ -18256,7 +18256,7 @@
         <v>56150</v>
       </c>
       <c r="B75" t="n">
-        <v>146061</v>
+        <v>177378</v>
       </c>
       <c r="C75" t="s">
         <v>516</v>
@@ -18317,7 +18317,7 @@
         <v>56150</v>
       </c>
       <c r="B76" t="n">
-        <v>146062</v>
+        <v>177379</v>
       </c>
       <c r="C76" t="s">
         <v>522</v>
@@ -18459,7 +18459,7 @@
         <v>56150</v>
       </c>
       <c r="B78" t="n">
-        <v>146063</v>
+        <v>177380</v>
       </c>
       <c r="C78" t="s">
         <v>533</v>
@@ -18530,7 +18530,7 @@
         <v>56150</v>
       </c>
       <c r="B79" t="n">
-        <v>146064</v>
+        <v>177381</v>
       </c>
       <c r="C79" t="s">
         <v>538</v>
@@ -18601,7 +18601,7 @@
         <v>56150</v>
       </c>
       <c r="B80" t="n">
-        <v>146065</v>
+        <v>177382</v>
       </c>
       <c r="C80" t="s">
         <v>543</v>
@@ -18814,7 +18814,7 @@
         <v>56150</v>
       </c>
       <c r="B83" t="n">
-        <v>146066</v>
+        <v>146090</v>
       </c>
       <c r="C83" t="s">
         <v>561</v>
@@ -18885,7 +18885,7 @@
         <v>56150</v>
       </c>
       <c r="B84" t="n">
-        <v>146067</v>
+        <v>177383</v>
       </c>
       <c r="C84" t="s">
         <v>567</v>
@@ -18956,7 +18956,7 @@
         <v>56150</v>
       </c>
       <c r="B85" t="n">
-        <v>146068</v>
+        <v>177384</v>
       </c>
       <c r="C85" t="s">
         <v>572</v>
@@ -19027,7 +19027,7 @@
         <v>56150</v>
       </c>
       <c r="B86" t="n">
-        <v>146069</v>
+        <v>177385</v>
       </c>
       <c r="C86" t="s">
         <v>579</v>
@@ -19098,7 +19098,7 @@
         <v>56150</v>
       </c>
       <c r="B87" t="n">
-        <v>146070</v>
+        <v>177386</v>
       </c>
       <c r="C87" t="s">
         <v>585</v>
@@ -19169,7 +19169,7 @@
         <v>56150</v>
       </c>
       <c r="B88" t="n">
-        <v>146071</v>
+        <v>177387</v>
       </c>
       <c r="C88" t="s">
         <v>592</v>
@@ -19240,7 +19240,7 @@
         <v>56150</v>
       </c>
       <c r="B89" t="n">
-        <v>146072</v>
+        <v>177388</v>
       </c>
       <c r="C89" t="s">
         <v>597</v>
@@ -19516,7 +19516,7 @@
         <v>56150</v>
       </c>
       <c r="B93" t="n">
-        <v>146073</v>
+        <v>177389</v>
       </c>
       <c r="C93" t="s">
         <v>622</v>
@@ -19658,7 +19658,7 @@
         <v>56150</v>
       </c>
       <c r="B95" t="n">
-        <v>146074</v>
+        <v>177390</v>
       </c>
       <c r="C95" t="s">
         <v>633</v>
@@ -19727,7 +19727,7 @@
         <v>56150</v>
       </c>
       <c r="B96" t="n">
-        <v>146075</v>
+        <v>177391</v>
       </c>
       <c r="C96" t="s">
         <v>640</v>
@@ -19869,7 +19869,7 @@
         <v>56150</v>
       </c>
       <c r="B98" t="n">
-        <v>146076</v>
+        <v>177392</v>
       </c>
       <c r="C98" t="s">
         <v>652</v>
@@ -19940,7 +19940,7 @@
         <v>56150</v>
       </c>
       <c r="B99" t="n">
-        <v>146077</v>
+        <v>177393</v>
       </c>
       <c r="C99" t="s">
         <v>658</v>
@@ -20011,7 +20011,7 @@
         <v>56150</v>
       </c>
       <c r="B100" t="n">
-        <v>146078</v>
+        <v>177394</v>
       </c>
       <c r="C100" t="s">
         <v>664</v>
@@ -20082,7 +20082,7 @@
         <v>56150</v>
       </c>
       <c r="B101" t="n">
-        <v>146079</v>
+        <v>177395</v>
       </c>
       <c r="C101" t="s">
         <v>671</v>
@@ -20275,7 +20275,7 @@
         <v>56150</v>
       </c>
       <c r="B104" t="n">
-        <v>146080</v>
+        <v>177396</v>
       </c>
       <c r="C104" t="s">
         <v>690</v>
@@ -20346,7 +20346,7 @@
         <v>56150</v>
       </c>
       <c r="B105" t="n">
-        <v>146081</v>
+        <v>177397</v>
       </c>
       <c r="C105" t="s">
         <v>696</v>
@@ -20478,7 +20478,7 @@
         <v>56150</v>
       </c>
       <c r="B107" t="n">
-        <v>146082</v>
+        <v>177398</v>
       </c>
       <c r="C107" t="s">
         <v>709</v>
@@ -20681,7 +20681,7 @@
         <v>56150</v>
       </c>
       <c r="B110" t="n">
-        <v>146083</v>
+        <v>177399</v>
       </c>
       <c r="C110" t="s">
         <v>727</v>
@@ -20748,7 +20748,7 @@
         <v>56150</v>
       </c>
       <c r="B111" t="n">
-        <v>146084</v>
+        <v>146097</v>
       </c>
       <c r="C111" t="s">
         <v>733</v>
@@ -20809,7 +20809,7 @@
         <v>56150</v>
       </c>
       <c r="B112" t="n">
-        <v>146085</v>
+        <v>177400</v>
       </c>
       <c r="C112" t="s">
         <v>739</v>
@@ -20880,7 +20880,7 @@
         <v>56150</v>
       </c>
       <c r="B113" t="n">
-        <v>146086</v>
+        <v>177401</v>
       </c>
       <c r="C113" t="s">
         <v>745</v>
@@ -21012,7 +21012,7 @@
         <v>56150</v>
       </c>
       <c r="B115" t="n">
-        <v>146087</v>
+        <v>177402</v>
       </c>
       <c r="C115" t="s">
         <v>758</v>
@@ -21083,7 +21083,7 @@
         <v>56150</v>
       </c>
       <c r="B116" t="n">
-        <v>146088</v>
+        <v>177403</v>
       </c>
       <c r="C116" t="s">
         <v>764</v>
@@ -21154,7 +21154,7 @@
         <v>56150</v>
       </c>
       <c r="B117" t="n">
-        <v>146089</v>
+        <v>146153</v>
       </c>
       <c r="C117" t="s">
         <v>769</v>
@@ -21215,7 +21215,7 @@
         <v>56150</v>
       </c>
       <c r="B118" t="n">
-        <v>146090</v>
+        <v>177404</v>
       </c>
       <c r="C118" t="s">
         <v>776</v>
@@ -21280,7 +21280,7 @@
         <v>56150</v>
       </c>
       <c r="B119" t="n">
-        <v>146091</v>
+        <v>177405</v>
       </c>
       <c r="C119" t="s">
         <v>782</v>
@@ -21326,7 +21326,7 @@
         <v>56150</v>
       </c>
       <c r="B120" t="n">
-        <v>146092</v>
+        <v>177406</v>
       </c>
       <c r="C120" t="s">
         <v>786</v>
@@ -21391,7 +21391,7 @@
         <v>56150</v>
       </c>
       <c r="B121" t="n">
-        <v>146093</v>
+        <v>177407</v>
       </c>
       <c r="C121" t="s">
         <v>792</v>
@@ -21594,7 +21594,7 @@
         <v>56150</v>
       </c>
       <c r="B124" t="n">
-        <v>146094</v>
+        <v>177408</v>
       </c>
       <c r="C124" t="s">
         <v>810</v>
@@ -21665,7 +21665,7 @@
         <v>56150</v>
       </c>
       <c r="B125" t="n">
-        <v>146095</v>
+        <v>177409</v>
       </c>
       <c r="C125" t="s">
         <v>816</v>
@@ -21876,7 +21876,7 @@
         <v>56150</v>
       </c>
       <c r="B128" t="n">
-        <v>146096</v>
+        <v>177410</v>
       </c>
       <c r="C128" t="s">
         <v>834</v>
@@ -21947,7 +21947,7 @@
         <v>56150</v>
       </c>
       <c r="B129" t="n">
-        <v>146097</v>
+        <v>177411</v>
       </c>
       <c r="C129" t="s">
         <v>841</v>
@@ -22008,7 +22008,7 @@
         <v>56150</v>
       </c>
       <c r="B130" t="n">
-        <v>146098</v>
+        <v>177412</v>
       </c>
       <c r="C130" t="s">
         <v>848</v>
@@ -22079,7 +22079,7 @@
         <v>56150</v>
       </c>
       <c r="B131" t="n">
-        <v>146099</v>
+        <v>177413</v>
       </c>
       <c r="C131" t="s">
         <v>854</v>
@@ -22150,7 +22150,7 @@
         <v>56150</v>
       </c>
       <c r="B132" t="n">
-        <v>146100</v>
+        <v>177414</v>
       </c>
       <c r="C132" t="s">
         <v>860</v>
@@ -22221,7 +22221,7 @@
         <v>56150</v>
       </c>
       <c r="B133" t="n">
-        <v>146101</v>
+        <v>177415</v>
       </c>
       <c r="C133" t="s">
         <v>866</v>
@@ -22292,7 +22292,7 @@
         <v>56150</v>
       </c>
       <c r="B134" t="n">
-        <v>146102</v>
+        <v>177416</v>
       </c>
       <c r="C134" t="s">
         <v>871</v>
@@ -22434,7 +22434,7 @@
         <v>56150</v>
       </c>
       <c r="B136" t="n">
-        <v>146103</v>
+        <v>177417</v>
       </c>
       <c r="C136" t="s">
         <v>883</v>
@@ -22505,7 +22505,7 @@
         <v>56150</v>
       </c>
       <c r="B137" t="n">
-        <v>146104</v>
+        <v>177418</v>
       </c>
       <c r="C137" t="s">
         <v>888</v>
@@ -22633,7 +22633,7 @@
         <v>56150</v>
       </c>
       <c r="B139" t="n">
-        <v>146105</v>
+        <v>177419</v>
       </c>
       <c r="C139" t="s">
         <v>900</v>
@@ -22704,7 +22704,7 @@
         <v>56150</v>
       </c>
       <c r="B140" t="n">
-        <v>146106</v>
+        <v>177420</v>
       </c>
       <c r="C140" t="s">
         <v>907</v>
@@ -22846,7 +22846,7 @@
         <v>56150</v>
       </c>
       <c r="B142" t="n">
-        <v>146107</v>
+        <v>177421</v>
       </c>
       <c r="C142" t="s">
         <v>918</v>
@@ -23252,7 +23252,7 @@
         <v>56150</v>
       </c>
       <c r="B148" t="n">
-        <v>146108</v>
+        <v>177422</v>
       </c>
       <c r="C148" t="s">
         <v>957</v>
@@ -23319,7 +23319,7 @@
         <v>56150</v>
       </c>
       <c r="B149" t="n">
-        <v>146109</v>
+        <v>177423</v>
       </c>
       <c r="C149" t="s">
         <v>963</v>
@@ -23526,7 +23526,7 @@
         <v>56150</v>
       </c>
       <c r="B152" t="n">
-        <v>146110</v>
+        <v>177424</v>
       </c>
       <c r="C152" t="s">
         <v>981</v>
@@ -23739,7 +23739,7 @@
         <v>56150</v>
       </c>
       <c r="B155" t="n">
-        <v>146111</v>
+        <v>177425</v>
       </c>
       <c r="C155" t="s">
         <v>1000</v>
@@ -23871,7 +23871,7 @@
         <v>56150</v>
       </c>
       <c r="B157" t="n">
-        <v>146112</v>
+        <v>177426</v>
       </c>
       <c r="C157" t="s">
         <v>1012</v>
@@ -23942,7 +23942,7 @@
         <v>56150</v>
       </c>
       <c r="B158" t="n">
-        <v>146113</v>
+        <v>177427</v>
       </c>
       <c r="C158" t="s">
         <v>1018</v>
@@ -24155,7 +24155,7 @@
         <v>56150</v>
       </c>
       <c r="B161" t="n">
-        <v>146114</v>
+        <v>177428</v>
       </c>
       <c r="C161" t="s">
         <v>1035</v>
@@ -24297,7 +24297,7 @@
         <v>56150</v>
       </c>
       <c r="B163" t="n">
-        <v>146115</v>
+        <v>177429</v>
       </c>
       <c r="C163" t="s">
         <v>1048</v>
@@ -24362,7 +24362,7 @@
         <v>56150</v>
       </c>
       <c r="B164" t="n">
-        <v>146116</v>
+        <v>177430</v>
       </c>
       <c r="C164" t="s">
         <v>1054</v>
@@ -24427,7 +24427,7 @@
         <v>56150</v>
       </c>
       <c r="B165" t="n">
-        <v>146117</v>
+        <v>177431</v>
       </c>
       <c r="C165" t="s">
         <v>1061</v>
@@ -24498,7 +24498,7 @@
         <v>56150</v>
       </c>
       <c r="B166" t="n">
-        <v>146118</v>
+        <v>177432</v>
       </c>
       <c r="C166" t="s">
         <v>1067</v>
@@ -24559,7 +24559,7 @@
         <v>56150</v>
       </c>
       <c r="B167" t="n">
-        <v>146119</v>
+        <v>177433</v>
       </c>
       <c r="C167" t="s">
         <v>1073</v>
@@ -24628,7 +24628,7 @@
         <v>56150</v>
       </c>
       <c r="B168" t="n">
-        <v>146120</v>
+        <v>177434</v>
       </c>
       <c r="C168" t="s">
         <v>1082</v>
@@ -24778,7 +24778,7 @@
         <v>56150</v>
       </c>
       <c r="B170" t="n">
-        <v>146121</v>
+        <v>177435</v>
       </c>
       <c r="C170" t="s">
         <v>1095</v>
@@ -24928,7 +24928,7 @@
         <v>56150</v>
       </c>
       <c r="B172" t="n">
-        <v>146122</v>
+        <v>177436</v>
       </c>
       <c r="C172" t="s">
         <v>1109</v>
@@ -25003,7 +25003,7 @@
         <v>56150</v>
       </c>
       <c r="B173" t="n">
-        <v>146123</v>
+        <v>177437</v>
       </c>
       <c r="C173" t="s">
         <v>1116</v>
@@ -25153,7 +25153,7 @@
         <v>56150</v>
       </c>
       <c r="B175" t="n">
-        <v>146124</v>
+        <v>177438</v>
       </c>
       <c r="C175" t="s">
         <v>1132</v>
@@ -25299,7 +25299,7 @@
         <v>56150</v>
       </c>
       <c r="B177" t="n">
-        <v>146125</v>
+        <v>177439</v>
       </c>
       <c r="C177" t="s">
         <v>1145</v>
@@ -25374,7 +25374,7 @@
         <v>56150</v>
       </c>
       <c r="B178" t="n">
-        <v>146126</v>
+        <v>177440</v>
       </c>
       <c r="C178" t="s">
         <v>1152</v>
@@ -25524,7 +25524,7 @@
         <v>56150</v>
       </c>
       <c r="B180" t="n">
-        <v>146127</v>
+        <v>177441</v>
       </c>
       <c r="C180" t="s">
         <v>1166</v>
@@ -25668,7 +25668,7 @@
         <v>56150</v>
       </c>
       <c r="B182" t="n">
-        <v>146128</v>
+        <v>177442</v>
       </c>
       <c r="C182" t="s">
         <v>1180</v>
@@ -25812,7 +25812,7 @@
         <v>56150</v>
       </c>
       <c r="B184" t="n">
-        <v>146129</v>
+        <v>177443</v>
       </c>
       <c r="C184" t="s">
         <v>1196</v>
@@ -25883,7 +25883,7 @@
         <v>56150</v>
       </c>
       <c r="B185" t="n">
-        <v>146130</v>
+        <v>177444</v>
       </c>
       <c r="C185" t="s">
         <v>1203</v>
@@ -25958,7 +25958,7 @@
         <v>56150</v>
       </c>
       <c r="B186" t="n">
-        <v>146131</v>
+        <v>177445</v>
       </c>
       <c r="C186" t="s">
         <v>1210</v>
@@ -26108,7 +26108,7 @@
         <v>56150</v>
       </c>
       <c r="B188" t="n">
-        <v>146132</v>
+        <v>177446</v>
       </c>
       <c r="C188" t="s">
         <v>1226</v>
@@ -26329,7 +26329,7 @@
         <v>56150</v>
       </c>
       <c r="B191" t="n">
-        <v>146133</v>
+        <v>177447</v>
       </c>
       <c r="C191" t="s">
         <v>1247</v>
@@ -26404,7 +26404,7 @@
         <v>56150</v>
       </c>
       <c r="B192" t="n">
-        <v>146134</v>
+        <v>177448</v>
       </c>
       <c r="C192" t="s">
         <v>1254</v>
@@ -26475,7 +26475,7 @@
         <v>56150</v>
       </c>
       <c r="B193" t="n">
-        <v>146135</v>
+        <v>177449</v>
       </c>
       <c r="C193" t="s">
         <v>1261</v>
@@ -26617,7 +26617,7 @@
         <v>56150</v>
       </c>
       <c r="B195" t="n">
-        <v>146136</v>
+        <v>177450</v>
       </c>
       <c r="C195" t="s">
         <v>1275</v>
@@ -26692,7 +26692,7 @@
         <v>56150</v>
       </c>
       <c r="B196" t="n">
-        <v>146137</v>
+        <v>177451</v>
       </c>
       <c r="C196" t="s">
         <v>1282</v>
@@ -26838,7 +26838,7 @@
         <v>56150</v>
       </c>
       <c r="B198" t="n">
-        <v>146138</v>
+        <v>177452</v>
       </c>
       <c r="C198" t="s">
         <v>1297</v>
@@ -26913,7 +26913,7 @@
         <v>56150</v>
       </c>
       <c r="B199" t="n">
-        <v>146139</v>
+        <v>177453</v>
       </c>
       <c r="C199" t="s">
         <v>1304</v>
@@ -26978,7 +26978,7 @@
         <v>56150</v>
       </c>
       <c r="B200" t="n">
-        <v>146140</v>
+        <v>177454</v>
       </c>
       <c r="C200" t="s">
         <v>1310</v>
@@ -27053,7 +27053,7 @@
         <v>56150</v>
       </c>
       <c r="B201" t="n">
-        <v>146141</v>
+        <v>177455</v>
       </c>
       <c r="C201" t="s">
         <v>1317</v>
@@ -27128,7 +27128,7 @@
         <v>56150</v>
       </c>
       <c r="B202" t="n">
-        <v>146142</v>
+        <v>177456</v>
       </c>
       <c r="C202" t="s">
         <v>1324</v>
@@ -27197,7 +27197,7 @@
         <v>56150</v>
       </c>
       <c r="B203" t="n">
-        <v>146143</v>
+        <v>177457</v>
       </c>
       <c r="C203" t="s">
         <v>1332</v>
@@ -27262,7 +27262,7 @@
         <v>56150</v>
       </c>
       <c r="B204" t="n">
-        <v>146144</v>
+        <v>177458</v>
       </c>
       <c r="C204" t="s">
         <v>1341</v>
@@ -27412,7 +27412,7 @@
         <v>56150</v>
       </c>
       <c r="B206" t="n">
-        <v>146145</v>
+        <v>177459</v>
       </c>
       <c r="C206" t="s">
         <v>1354</v>
@@ -27487,7 +27487,7 @@
         <v>56150</v>
       </c>
       <c r="B207" t="n">
-        <v>146146</v>
+        <v>177460</v>
       </c>
       <c r="C207" t="s">
         <v>1361</v>
@@ -27556,7 +27556,7 @@
         <v>56150</v>
       </c>
       <c r="B208" t="n">
-        <v>146147</v>
+        <v>177461</v>
       </c>
       <c r="C208" t="s">
         <v>1369</v>
@@ -27621,7 +27621,7 @@
         <v>56150</v>
       </c>
       <c r="B209" t="n">
-        <v>146148</v>
+        <v>177462</v>
       </c>
       <c r="C209" t="s">
         <v>1376</v>
@@ -27682,7 +27682,7 @@
         <v>56150</v>
       </c>
       <c r="B210" t="n">
-        <v>146149</v>
+        <v>177463</v>
       </c>
       <c r="C210" t="s">
         <v>1383</v>
@@ -27749,7 +27749,7 @@
         <v>56150</v>
       </c>
       <c r="B211" t="n">
-        <v>146150</v>
+        <v>177464</v>
       </c>
       <c r="C211" t="s">
         <v>1390</v>
@@ -27824,7 +27824,7 @@
         <v>56150</v>
       </c>
       <c r="B212" t="n">
-        <v>146151</v>
+        <v>177465</v>
       </c>
       <c r="C212" t="s">
         <v>1398</v>
@@ -27899,7 +27899,7 @@
         <v>56150</v>
       </c>
       <c r="B213" t="n">
-        <v>146152</v>
+        <v>177466</v>
       </c>
       <c r="C213" t="s">
         <v>1405</v>
@@ -28045,7 +28045,7 @@
         <v>56150</v>
       </c>
       <c r="B215" t="n">
-        <v>146153</v>
+        <v>177467</v>
       </c>
       <c r="C215" t="s">
         <v>1419</v>
@@ -28120,7 +28120,7 @@
         <v>56150</v>
       </c>
       <c r="B216" t="n">
-        <v>146154</v>
+        <v>177468</v>
       </c>
       <c r="C216" t="s">
         <v>1426</v>
@@ -28270,7 +28270,7 @@
         <v>56150</v>
       </c>
       <c r="B218" t="n">
-        <v>146155</v>
+        <v>177469</v>
       </c>
       <c r="C218" t="s">
         <v>1438</v>
@@ -28345,7 +28345,7 @@
         <v>56150</v>
       </c>
       <c r="B219" t="n">
-        <v>146156</v>
+        <v>177470</v>
       </c>
       <c r="C219" t="s">
         <v>1445</v>
@@ -28420,7 +28420,7 @@
         <v>56150</v>
       </c>
       <c r="B220" t="n">
-        <v>146157</v>
+        <v>1727</v>
       </c>
       <c r="C220" t="s">
         <v>1452</v>
@@ -28635,7 +28635,7 @@
         <v>56150</v>
       </c>
       <c r="B223" t="n">
-        <v>146158</v>
+        <v>177471</v>
       </c>
       <c r="C223" t="s">
         <v>1478</v>
@@ -28850,7 +28850,7 @@
         <v>56150</v>
       </c>
       <c r="B226" t="n">
-        <v>146159</v>
+        <v>177472</v>
       </c>
       <c r="C226" t="s">
         <v>1498</v>
@@ -29071,7 +29071,7 @@
         <v>56150</v>
       </c>
       <c r="B229" t="n">
-        <v>146160</v>
+        <v>177473</v>
       </c>
       <c r="C229" t="s">
         <v>1519</v>
@@ -29146,7 +29146,7 @@
         <v>56150</v>
       </c>
       <c r="B230" t="n">
-        <v>146161</v>
+        <v>177474</v>
       </c>
       <c r="C230" t="s">
         <v>1526</v>
@@ -29292,7 +29292,7 @@
         <v>56150</v>
       </c>
       <c r="B232" t="n">
-        <v>146162</v>
+        <v>177475</v>
       </c>
       <c r="C232" t="s">
         <v>1541</v>
@@ -29367,7 +29367,7 @@
         <v>56150</v>
       </c>
       <c r="B233" t="n">
-        <v>146163</v>
+        <v>177476</v>
       </c>
       <c r="C233" t="s">
         <v>1548</v>
@@ -29438,7 +29438,7 @@
         <v>56150</v>
       </c>
       <c r="B234" t="n">
-        <v>146164</v>
+        <v>177477</v>
       </c>
       <c r="C234" t="s">
         <v>1558</v>
@@ -29509,7 +29509,7 @@
         <v>56150</v>
       </c>
       <c r="B235" t="n">
-        <v>146165</v>
+        <v>177478</v>
       </c>
       <c r="C235" t="s">
         <v>1566</v>
@@ -29805,7 +29805,7 @@
         <v>56150</v>
       </c>
       <c r="B239" t="n">
-        <v>146166</v>
+        <v>177479</v>
       </c>
       <c r="C239" t="s">
         <v>1599</v>
@@ -30101,7 +30101,7 @@
         <v>56150</v>
       </c>
       <c r="B243" t="n">
-        <v>146167</v>
+        <v>177480</v>
       </c>
       <c r="C243" t="s">
         <v>1629</v>
@@ -30176,7 +30176,7 @@
         <v>56150</v>
       </c>
       <c r="B244" t="n">
-        <v>146168</v>
+        <v>177481</v>
       </c>
       <c r="C244" t="s">
         <v>1636</v>
@@ -30381,7 +30381,7 @@
         <v>56150</v>
       </c>
       <c r="B247" t="n">
-        <v>146169</v>
+        <v>177482</v>
       </c>
       <c r="C247" t="s">
         <v>1659</v>
@@ -30515,7 +30515,7 @@
         <v>56150</v>
       </c>
       <c r="B249" t="n">
-        <v>146170</v>
+        <v>177483</v>
       </c>
       <c r="C249" t="s">
         <v>1674</v>
@@ -30586,7 +30586,7 @@
         <v>56150</v>
       </c>
       <c r="B250" t="n">
-        <v>146171</v>
+        <v>177484</v>
       </c>
       <c r="C250" t="s">
         <v>1683</v>
@@ -30726,7 +30726,7 @@
         <v>56150</v>
       </c>
       <c r="B252" t="n">
-        <v>146172</v>
+        <v>177485</v>
       </c>
       <c r="C252" t="s">
         <v>1697</v>
@@ -30801,7 +30801,7 @@
         <v>56150</v>
       </c>
       <c r="B253" t="n">
-        <v>146173</v>
+        <v>177486</v>
       </c>
       <c r="C253" t="s">
         <v>1704</v>
@@ -30945,7 +30945,7 @@
         <v>56150</v>
       </c>
       <c r="B255" t="n">
-        <v>146065</v>
+        <v>146090</v>
       </c>
       <c r="C255" t="s">
         <v>561</v>
@@ -31091,7 +31091,7 @@
         <v>56150</v>
       </c>
       <c r="B257" t="n">
-        <v>146174</v>
+        <v>177487</v>
       </c>
       <c r="C257" t="s">
         <v>1730</v>
@@ -31381,7 +31381,7 @@
         <v>56150</v>
       </c>
       <c r="B261" t="n">
-        <v>146175</v>
+        <v>177488</v>
       </c>
       <c r="C261" t="s">
         <v>1756</v>
@@ -31525,7 +31525,7 @@
         <v>56150</v>
       </c>
       <c r="B263" t="n">
-        <v>146176</v>
+        <v>177489</v>
       </c>
       <c r="C263" t="s">
         <v>1770</v>
@@ -31600,7 +31600,7 @@
         <v>56150</v>
       </c>
       <c r="B264" t="n">
-        <v>146177</v>
+        <v>177490</v>
       </c>
       <c r="C264" t="s">
         <v>1780</v>
@@ -31675,7 +31675,7 @@
         <v>56150</v>
       </c>
       <c r="B265" t="n">
-        <v>146178</v>
+        <v>177491</v>
       </c>
       <c r="C265" t="s">
         <v>1787</v>
@@ -31746,7 +31746,7 @@
         <v>56150</v>
       </c>
       <c r="B266" t="n">
-        <v>146179</v>
+        <v>177492</v>
       </c>
       <c r="C266" t="s">
         <v>1794</v>
@@ -31896,7 +31896,7 @@
         <v>56150</v>
       </c>
       <c r="B268" t="n">
-        <v>146180</v>
+        <v>177493</v>
       </c>
       <c r="C268" t="s">
         <v>1808</v>
@@ -31971,7 +31971,7 @@
         <v>56150</v>
       </c>
       <c r="B269" t="n">
-        <v>146181</v>
+        <v>177494</v>
       </c>
       <c r="C269" t="s">
         <v>1815</v>
@@ -32042,7 +32042,7 @@
         <v>56150</v>
       </c>
       <c r="B270" t="n">
-        <v>146182</v>
+        <v>177495</v>
       </c>
       <c r="C270" t="s">
         <v>1822</v>
@@ -32099,7 +32099,7 @@
         <v>56150</v>
       </c>
       <c r="B271" t="n">
-        <v>146183</v>
+        <v>177496</v>
       </c>
       <c r="C271" t="s">
         <v>1828</v>
@@ -32170,7 +32170,7 @@
         <v>56150</v>
       </c>
       <c r="B272" t="n">
-        <v>146083</v>
+        <v>146097</v>
       </c>
       <c r="C272" t="s">
         <v>733</v>
@@ -32444,7 +32444,7 @@
         <v>56150</v>
       </c>
       <c r="B276" t="n">
-        <v>146184</v>
+        <v>177497</v>
       </c>
       <c r="C276" t="s">
         <v>1856</v>
@@ -32515,7 +32515,7 @@
         <v>56150</v>
       </c>
       <c r="B277" t="n">
-        <v>146185</v>
+        <v>177498</v>
       </c>
       <c r="C277" t="s">
         <v>1862</v>
@@ -32653,7 +32653,7 @@
         <v>56150</v>
       </c>
       <c r="B279" t="n">
-        <v>146186</v>
+        <v>177499</v>
       </c>
       <c r="C279" t="s">
         <v>1876</v>
@@ -32720,7 +32720,7 @@
         <v>56150</v>
       </c>
       <c r="B280" t="n">
-        <v>146187</v>
+        <v>177500</v>
       </c>
       <c r="C280" t="s">
         <v>1884</v>
@@ -32856,7 +32856,7 @@
         <v>56150</v>
       </c>
       <c r="B282" t="n">
-        <v>146188</v>
+        <v>177501</v>
       </c>
       <c r="C282" t="s">
         <v>1899</v>
@@ -33002,7 +33002,7 @@
         <v>56150</v>
       </c>
       <c r="B284" t="n">
-        <v>146189</v>
+        <v>146154</v>
       </c>
       <c r="C284" t="s">
         <v>1912</v>
@@ -33071,7 +33071,7 @@
         <v>56150</v>
       </c>
       <c r="B285" t="n">
-        <v>146190</v>
+        <v>177502</v>
       </c>
       <c r="C285" t="s">
         <v>1919</v>
@@ -33146,7 +33146,7 @@
         <v>56150</v>
       </c>
       <c r="B286" t="n">
-        <v>146191</v>
+        <v>177503</v>
       </c>
       <c r="C286" t="s">
         <v>1926</v>
@@ -33211,7 +33211,7 @@
         <v>56150</v>
       </c>
       <c r="B287" t="n">
-        <v>146192</v>
+        <v>177504</v>
       </c>
       <c r="C287" t="s">
         <v>1933</v>
@@ -33280,7 +33280,7 @@
         <v>56150</v>
       </c>
       <c r="B288" t="n">
-        <v>146193</v>
+        <v>177505</v>
       </c>
       <c r="C288" t="s">
         <v>1940</v>
@@ -33430,7 +33430,7 @@
         <v>56150</v>
       </c>
       <c r="B290" t="n">
-        <v>146194</v>
+        <v>177506</v>
       </c>
       <c r="C290" t="s">
         <v>1958</v>
@@ -33580,7 +33580,7 @@
         <v>56150</v>
       </c>
       <c r="B292" t="n">
-        <v>146195</v>
+        <v>177507</v>
       </c>
       <c r="C292" t="s">
         <v>1972</v>
@@ -33714,7 +33714,7 @@
         <v>56150</v>
       </c>
       <c r="B294" t="n">
-        <v>146196</v>
+        <v>177508</v>
       </c>
       <c r="C294" t="s">
         <v>1988</v>
@@ -34010,7 +34010,7 @@
         <v>56150</v>
       </c>
       <c r="B298" t="n">
-        <v>146197</v>
+        <v>177509</v>
       </c>
       <c r="C298" t="s">
         <v>2016</v>
@@ -34290,7 +34290,7 @@
         <v>56150</v>
       </c>
       <c r="B302" t="n">
-        <v>146198</v>
+        <v>177510</v>
       </c>
       <c r="C302" t="s">
         <v>2048</v>
@@ -34355,7 +34355,7 @@
         <v>56150</v>
       </c>
       <c r="B303" t="n">
-        <v>146199</v>
+        <v>177511</v>
       </c>
       <c r="C303" t="s">
         <v>2055</v>
@@ -34728,7 +34728,7 @@
         <v>56150</v>
       </c>
       <c r="B308" t="n">
-        <v>146200</v>
+        <v>177512</v>
       </c>
       <c r="C308" t="s">
         <v>2095</v>
@@ -34878,7 +34878,7 @@
         <v>56150</v>
       </c>
       <c r="B310" t="n">
-        <v>146201</v>
+        <v>177513</v>
       </c>
       <c r="C310" t="s">
         <v>2113</v>
@@ -35028,7 +35028,7 @@
         <v>56150</v>
       </c>
       <c r="B312" t="n">
-        <v>146202</v>
+        <v>177514</v>
       </c>
       <c r="C312" t="s">
         <v>2130</v>
@@ -35103,7 +35103,7 @@
         <v>56150</v>
       </c>
       <c r="B313" t="n">
-        <v>146203</v>
+        <v>177515</v>
       </c>
       <c r="C313" t="s">
         <v>2137</v>
@@ -35168,7 +35168,7 @@
         <v>56150</v>
       </c>
       <c r="B314" t="n">
-        <v>146204</v>
+        <v>177516</v>
       </c>
       <c r="C314" t="s">
         <v>2146</v>
@@ -35243,7 +35243,7 @@
         <v>56150</v>
       </c>
       <c r="B315" t="n">
-        <v>146205</v>
+        <v>177517</v>
       </c>
       <c r="C315" t="s">
         <v>2152</v>
@@ -35318,7 +35318,7 @@
         <v>56150</v>
       </c>
       <c r="B316" t="n">
-        <v>146206</v>
+        <v>177518</v>
       </c>
       <c r="C316" t="s">
         <v>2159</v>
@@ -35464,7 +35464,7 @@
         <v>56150</v>
       </c>
       <c r="B318" t="n">
-        <v>146207</v>
+        <v>177519</v>
       </c>
       <c r="C318" t="s">
         <v>2175</v>
@@ -35531,7 +35531,7 @@
         <v>56150</v>
       </c>
       <c r="B319" t="n">
-        <v>146208</v>
+        <v>146136</v>
       </c>
       <c r="C319" t="s">
         <v>2181</v>
@@ -35600,7 +35600,7 @@
         <v>56150</v>
       </c>
       <c r="B320" t="n">
-        <v>146209</v>
+        <v>177520</v>
       </c>
       <c r="C320" t="s">
         <v>2187</v>
@@ -35665,7 +35665,7 @@
         <v>56150</v>
       </c>
       <c r="B321" t="n">
-        <v>146210</v>
+        <v>177521</v>
       </c>
       <c r="C321" t="s">
         <v>2196</v>
@@ -36026,7 +36026,7 @@
         <v>56150</v>
       </c>
       <c r="B326" t="n">
-        <v>146211</v>
+        <v>177522</v>
       </c>
       <c r="C326" t="s">
         <v>2236</v>
@@ -36095,7 +36095,7 @@
         <v>56150</v>
       </c>
       <c r="B327" t="n">
-        <v>146212</v>
+        <v>177523</v>
       </c>
       <c r="C327" t="s">
         <v>2244</v>
@@ -36225,7 +36225,7 @@
         <v>56150</v>
       </c>
       <c r="B329" t="n">
-        <v>146213</v>
+        <v>177524</v>
       </c>
       <c r="C329" t="s">
         <v>2260</v>
@@ -36286,7 +36286,7 @@
         <v>56150</v>
       </c>
       <c r="B330" t="n">
-        <v>146214</v>
+        <v>177525</v>
       </c>
       <c r="C330" t="s">
         <v>2269</v>
@@ -36357,7 +36357,7 @@
         <v>56150</v>
       </c>
       <c r="B331" t="n">
-        <v>146215</v>
+        <v>177526</v>
       </c>
       <c r="C331" t="s">
         <v>2278</v>
@@ -36507,7 +36507,7 @@
         <v>56150</v>
       </c>
       <c r="B333" t="n">
-        <v>146216</v>
+        <v>177527</v>
       </c>
       <c r="C333" t="s">
         <v>2291</v>
@@ -36582,7 +36582,7 @@
         <v>56150</v>
       </c>
       <c r="B334" t="n">
-        <v>146217</v>
+        <v>177528</v>
       </c>
       <c r="C334" t="s">
         <v>2299</v>
@@ -36653,7 +36653,7 @@
         <v>56150</v>
       </c>
       <c r="B335" t="n">
-        <v>146218</v>
+        <v>177529</v>
       </c>
       <c r="C335" t="s">
         <v>2308</v>
@@ -36803,7 +36803,7 @@
         <v>56150</v>
       </c>
       <c r="B337" t="n">
-        <v>146219</v>
+        <v>177530</v>
       </c>
       <c r="C337" t="s">
         <v>2324</v>
@@ -36878,7 +36878,7 @@
         <v>56150</v>
       </c>
       <c r="B338" t="n">
-        <v>146220</v>
+        <v>177531</v>
       </c>
       <c r="C338" t="s">
         <v>2332</v>
@@ -36949,7 +36949,7 @@
         <v>56150</v>
       </c>
       <c r="B339" t="n">
-        <v>146221</v>
+        <v>177532</v>
       </c>
       <c r="C339" t="s">
         <v>2342</v>
@@ -37018,7 +37018,7 @@
         <v>56150</v>
       </c>
       <c r="B340" t="n">
-        <v>146222</v>
+        <v>146168</v>
       </c>
       <c r="C340" t="s">
         <v>2349</v>
@@ -37093,7 +37093,7 @@
         <v>56150</v>
       </c>
       <c r="B341" t="n">
-        <v>146223</v>
+        <v>177533</v>
       </c>
       <c r="C341" t="s">
         <v>2355</v>
@@ -37308,7 +37308,7 @@
         <v>56150</v>
       </c>
       <c r="B344" t="n">
-        <v>146224</v>
+        <v>177534</v>
       </c>
       <c r="C344" t="s">
         <v>2382</v>
@@ -37375,7 +37375,7 @@
         <v>56150</v>
       </c>
       <c r="B345" t="n">
-        <v>146225</v>
+        <v>177535</v>
       </c>
       <c r="C345" t="s">
         <v>2389</v>
@@ -37521,7 +37521,7 @@
         <v>56150</v>
       </c>
       <c r="B347" t="n">
-        <v>146226</v>
+        <v>177536</v>
       </c>
       <c r="C347" t="s">
         <v>2406</v>
@@ -37592,7 +37592,7 @@
         <v>56150</v>
       </c>
       <c r="B348" t="n">
-        <v>146227</v>
+        <v>177537</v>
       </c>
       <c r="C348" t="s">
         <v>2415</v>
@@ -38018,7 +38018,7 @@
         <v>56150</v>
       </c>
       <c r="B354" t="n">
-        <v>146228</v>
+        <v>177538</v>
       </c>
       <c r="C354" t="s">
         <v>2459</v>
@@ -38168,7 +38168,7 @@
         <v>56150</v>
       </c>
       <c r="B356" t="n">
-        <v>146207</v>
+        <v>146136</v>
       </c>
       <c r="C356" t="s">
         <v>2181</v>
@@ -38239,7 +38239,7 @@
         <v>56150</v>
       </c>
       <c r="B357" t="n">
-        <v>146229</v>
+        <v>177539</v>
       </c>
       <c r="C357" t="s">
         <v>2482</v>
@@ -38314,7 +38314,7 @@
         <v>56150</v>
       </c>
       <c r="B358" t="n">
-        <v>146230</v>
+        <v>177540</v>
       </c>
       <c r="C358" t="s">
         <v>2491</v>
@@ -38464,7 +38464,7 @@
         <v>56150</v>
       </c>
       <c r="B360" t="n">
-        <v>146231</v>
+        <v>177541</v>
       </c>
       <c r="C360" t="s">
         <v>2508</v>
@@ -38610,7 +38610,7 @@
         <v>56150</v>
       </c>
       <c r="B362" t="n">
-        <v>146232</v>
+        <v>177542</v>
       </c>
       <c r="C362" t="s">
         <v>2521</v>
@@ -38681,7 +38681,7 @@
         <v>56150</v>
       </c>
       <c r="B363" t="n">
-        <v>146233</v>
+        <v>177543</v>
       </c>
       <c r="C363" t="s">
         <v>2530</v>
@@ -38752,7 +38752,7 @@
         <v>56150</v>
       </c>
       <c r="B364" t="n">
-        <v>146234</v>
+        <v>177544</v>
       </c>
       <c r="C364" t="s">
         <v>2536</v>
@@ -38902,7 +38902,7 @@
         <v>56150</v>
       </c>
       <c r="B366" t="n">
-        <v>146235</v>
+        <v>177545</v>
       </c>
       <c r="C366" t="s">
         <v>2549</v>
@@ -38973,7 +38973,7 @@
         <v>56150</v>
       </c>
       <c r="B367" t="n">
-        <v>146236</v>
+        <v>177546</v>
       </c>
       <c r="C367" t="s">
         <v>2557</v>
@@ -39034,7 +39034,7 @@
         <v>56150</v>
       </c>
       <c r="B368" t="n">
-        <v>146237</v>
+        <v>177547</v>
       </c>
       <c r="C368" t="s">
         <v>2566</v>
@@ -39383,7 +39383,7 @@
         <v>56150</v>
       </c>
       <c r="B373" t="n">
-        <v>146238</v>
+        <v>177548</v>
       </c>
       <c r="C373" t="s">
         <v>2601</v>
@@ -39458,7 +39458,7 @@
         <v>56150</v>
       </c>
       <c r="B374" t="n">
-        <v>146239</v>
+        <v>177549</v>
       </c>
       <c r="C374" t="s">
         <v>2609</v>
@@ -39529,7 +39529,7 @@
         <v>56150</v>
       </c>
       <c r="B375" t="n">
-        <v>146240</v>
+        <v>177550</v>
       </c>
       <c r="C375" t="s">
         <v>2614</v>
@@ -39600,7 +39600,7 @@
         <v>56150</v>
       </c>
       <c r="B376" t="n">
-        <v>146241</v>
+        <v>177551</v>
       </c>
       <c r="C376" t="s">
         <v>2619</v>
@@ -39811,7 +39811,7 @@
         <v>56150</v>
       </c>
       <c r="B379" t="n">
-        <v>146242</v>
+        <v>177552</v>
       </c>
       <c r="C379" t="s">
         <v>2638</v>
@@ -39882,7 +39882,7 @@
         <v>56150</v>
       </c>
       <c r="B380" t="n">
-        <v>146243</v>
+        <v>177553</v>
       </c>
       <c r="C380" t="s">
         <v>2646</v>
@@ -40156,7 +40156,7 @@
         <v>56150</v>
       </c>
       <c r="B384" t="n">
-        <v>146244</v>
+        <v>177554</v>
       </c>
       <c r="C384" t="s">
         <v>2672</v>
@@ -40292,7 +40292,7 @@
         <v>56150</v>
       </c>
       <c r="B386" t="n">
-        <v>146245</v>
+        <v>177555</v>
       </c>
       <c r="C386" t="s">
         <v>2684</v>
@@ -40363,7 +40363,7 @@
         <v>56150</v>
       </c>
       <c r="B387" t="n">
-        <v>146246</v>
+        <v>177556</v>
       </c>
       <c r="C387" t="s">
         <v>2690</v>
@@ -40647,7 +40647,7 @@
         <v>56150</v>
       </c>
       <c r="B391" t="n">
-        <v>146088</v>
+        <v>146153</v>
       </c>
       <c r="C391" t="s">
         <v>769</v>
@@ -40718,7 +40718,7 @@
         <v>56150</v>
       </c>
       <c r="B392" t="n">
-        <v>146247</v>
+        <v>177557</v>
       </c>
       <c r="C392" t="s">
         <v>2721</v>
@@ -40789,7 +40789,7 @@
         <v>56150</v>
       </c>
       <c r="B393" t="n">
-        <v>146188</v>
+        <v>146154</v>
       </c>
       <c r="C393" t="s">
         <v>1912</v>
@@ -40860,7 +40860,7 @@
         <v>56150</v>
       </c>
       <c r="B394" t="n">
-        <v>146248</v>
+        <v>177558</v>
       </c>
       <c r="C394" t="s">
         <v>2732</v>
@@ -41079,7 +41079,7 @@
         <v>56150</v>
       </c>
       <c r="B397" t="n">
-        <v>146249</v>
+        <v>146175</v>
       </c>
       <c r="C397" t="s">
         <v>2753</v>
@@ -41154,7 +41154,7 @@
         <v>56150</v>
       </c>
       <c r="B398" t="n">
-        <v>146250</v>
+        <v>177559</v>
       </c>
       <c r="C398" t="s">
         <v>2760</v>
@@ -41215,7 +41215,7 @@
         <v>56150</v>
       </c>
       <c r="B399" t="n">
-        <v>146251</v>
+        <v>177560</v>
       </c>
       <c r="C399" t="s">
         <v>2767</v>
@@ -41286,7 +41286,7 @@
         <v>56150</v>
       </c>
       <c r="B400" t="n">
-        <v>146252</v>
+        <v>177561</v>
       </c>
       <c r="C400" t="s">
         <v>2774</v>
@@ -41357,7 +41357,7 @@
         <v>56150</v>
       </c>
       <c r="B401" t="n">
-        <v>146253</v>
+        <v>146173</v>
       </c>
       <c r="C401" t="s">
         <v>2779</v>
@@ -41503,7 +41503,7 @@
         <v>56150</v>
       </c>
       <c r="B403" t="n">
-        <v>146254</v>
+        <v>177562</v>
       </c>
       <c r="C403" t="s">
         <v>2794</v>
@@ -41858,7 +41858,7 @@
         <v>56150</v>
       </c>
       <c r="B408" t="n">
-        <v>146255</v>
+        <v>177563</v>
       </c>
       <c r="C408" t="s">
         <v>2826</v>
@@ -42004,7 +42004,7 @@
         <v>56150</v>
       </c>
       <c r="B410" t="n">
-        <v>146256</v>
+        <v>177564</v>
       </c>
       <c r="C410" t="s">
         <v>2838</v>
@@ -42217,7 +42217,7 @@
         <v>56150</v>
       </c>
       <c r="B413" t="n">
-        <v>146257</v>
+        <v>177565</v>
       </c>
       <c r="C413" t="s">
         <v>2856</v>
@@ -42438,7 +42438,7 @@
         <v>56150</v>
       </c>
       <c r="B416" t="n">
-        <v>146258</v>
+        <v>177566</v>
       </c>
       <c r="C416" t="s">
         <v>2878</v>
@@ -42503,7 +42503,7 @@
         <v>56150</v>
       </c>
       <c r="B417" t="n">
-        <v>146259</v>
+        <v>177567</v>
       </c>
       <c r="C417" t="s">
         <v>2887</v>
@@ -42653,7 +42653,7 @@
         <v>56150</v>
       </c>
       <c r="B419" t="n">
-        <v>146221</v>
+        <v>146168</v>
       </c>
       <c r="C419" t="s">
         <v>2349</v>
@@ -42724,7 +42724,7 @@
         <v>56150</v>
       </c>
       <c r="B420" t="n">
-        <v>146260</v>
+        <v>177568</v>
       </c>
       <c r="C420" t="s">
         <v>2906</v>
@@ -42866,7 +42866,7 @@
         <v>56150</v>
       </c>
       <c r="B422" t="n">
-        <v>146261</v>
+        <v>177569</v>
       </c>
       <c r="C422" t="s">
         <v>2917</v>
@@ -42937,7 +42937,7 @@
         <v>56150</v>
       </c>
       <c r="B423" t="n">
-        <v>146262</v>
+        <v>177570</v>
       </c>
       <c r="C423" t="s">
         <v>2923</v>
@@ -43221,7 +43221,7 @@
         <v>56150</v>
       </c>
       <c r="B427" t="n">
-        <v>146263</v>
+        <v>177571</v>
       </c>
       <c r="C427" t="s">
         <v>2948</v>
@@ -43292,7 +43292,7 @@
         <v>56150</v>
       </c>
       <c r="B428" t="n">
-        <v>146264</v>
+        <v>177572</v>
       </c>
       <c r="C428" t="s">
         <v>2954</v>
@@ -43363,7 +43363,7 @@
         <v>56150</v>
       </c>
       <c r="B429" t="n">
-        <v>146252</v>
+        <v>146173</v>
       </c>
       <c r="C429" t="s">
         <v>2779</v>
@@ -43507,7 +43507,7 @@
         <v>56150</v>
       </c>
       <c r="B431" t="n">
-        <v>146265</v>
+        <v>177573</v>
       </c>
       <c r="C431" t="s">
         <v>2972</v>
@@ -43578,7 +43578,7 @@
         <v>56150</v>
       </c>
       <c r="B432" t="n">
-        <v>146248</v>
+        <v>146175</v>
       </c>
       <c r="C432" t="s">
         <v>2753</v>
@@ -43639,7 +43639,7 @@
         <v>56150</v>
       </c>
       <c r="B433" t="n">
-        <v>146266</v>
+        <v>177574</v>
       </c>
       <c r="C433" t="s">
         <v>2983</v>
@@ -43710,7 +43710,7 @@
         <v>56150</v>
       </c>
       <c r="B434" t="n">
-        <v>146267</v>
+        <v>177575</v>
       </c>
       <c r="C434" t="s">
         <v>2991</v>
@@ -43852,7 +43852,7 @@
         <v>56150</v>
       </c>
       <c r="B436" t="n">
-        <v>146268</v>
+        <v>177576</v>
       </c>
       <c r="C436" t="s">
         <v>3003</v>
@@ -43913,7 +43913,7 @@
         <v>56150</v>
       </c>
       <c r="B437" t="n">
-        <v>146269</v>
+        <v>177577</v>
       </c>
       <c r="C437" t="s">
         <v>3009</v>
@@ -43984,7 +43984,7 @@
         <v>56150</v>
       </c>
       <c r="B438" t="n">
-        <v>146270</v>
+        <v>177578</v>
       </c>
       <c r="C438" t="s">
         <v>3015</v>
@@ -44134,7 +44134,7 @@
         <v>56150</v>
       </c>
       <c r="B440" t="n">
-        <v>146271</v>
+        <v>177579</v>
       </c>
       <c r="C440" t="s">
         <v>3032</v>
@@ -44209,7 +44209,7 @@
         <v>56150</v>
       </c>
       <c r="B441" t="n">
-        <v>146272</v>
+        <v>177580</v>
       </c>
       <c r="C441" t="s">
         <v>3042</v>
@@ -44284,7 +44284,7 @@
         <v>56150</v>
       </c>
       <c r="B442" t="n">
-        <v>146273</v>
+        <v>177581</v>
       </c>
       <c r="C442" t="s">
         <v>3048</v>
@@ -44430,7 +44430,7 @@
         <v>56150</v>
       </c>
       <c r="B444" t="n">
-        <v>146274</v>
+        <v>177582</v>
       </c>
       <c r="C444" t="s">
         <v>3064</v>
@@ -44572,7 +44572,7 @@
         <v>56150</v>
       </c>
       <c r="B446" t="n">
-        <v>146275</v>
+        <v>177583</v>
       </c>
       <c r="C446" t="s">
         <v>3078</v>
@@ -44643,7 +44643,7 @@
         <v>56150</v>
       </c>
       <c r="B447" t="n">
-        <v>146276</v>
+        <v>177584</v>
       </c>
       <c r="C447" t="s">
         <v>3084</v>
@@ -44714,7 +44714,7 @@
         <v>56150</v>
       </c>
       <c r="B448" t="n">
-        <v>146277</v>
+        <v>177585</v>
       </c>
       <c r="C448" t="s">
         <v>3090</v>
@@ -44785,7 +44785,7 @@
         <v>56150</v>
       </c>
       <c r="B449" t="n">
-        <v>146278</v>
+        <v>177586</v>
       </c>
       <c r="C449" t="s">
         <v>3096</v>
@@ -44860,7 +44860,7 @@
         <v>56150</v>
       </c>
       <c r="B450" t="n">
-        <v>146279</v>
+        <v>177587</v>
       </c>
       <c r="C450" t="s">
         <v>3105</v>
@@ -45006,7 +45006,7 @@
         <v>56150</v>
       </c>
       <c r="B452" t="n">
-        <v>146280</v>
+        <v>177588</v>
       </c>
       <c r="C452" t="s">
         <v>3119</v>
@@ -45081,7 +45081,7 @@
         <v>56150</v>
       </c>
       <c r="B453" t="n">
-        <v>146281</v>
+        <v>177589</v>
       </c>
       <c r="C453" t="s">
         <v>3129</v>
@@ -45290,7 +45290,7 @@
         <v>56150</v>
       </c>
       <c r="B456" t="n">
-        <v>146282</v>
+        <v>177590</v>
       </c>
       <c r="C456" t="s">
         <v>3149</v>
@@ -45361,7 +45361,7 @@
         <v>56150</v>
       </c>
       <c r="B457" t="n">
-        <v>146283</v>
+        <v>177591</v>
       </c>
       <c r="C457" t="s">
         <v>3156</v>
@@ -45432,7 +45432,7 @@
         <v>56150</v>
       </c>
       <c r="B458" t="n">
-        <v>146284</v>
+        <v>177592</v>
       </c>
       <c r="C458" t="s">
         <v>3161</v>
@@ -45574,7 +45574,7 @@
         <v>56150</v>
       </c>
       <c r="B460" t="n">
-        <v>146285</v>
+        <v>177593</v>
       </c>
       <c r="C460" t="s">
         <v>3173</v>
@@ -45645,7 +45645,7 @@
         <v>56150</v>
       </c>
       <c r="B461" t="n">
-        <v>146286</v>
+        <v>177594</v>
       </c>
       <c r="C461" t="s">
         <v>3179</v>
@@ -45866,7 +45866,7 @@
         <v>56150</v>
       </c>
       <c r="B464" t="n">
-        <v>146287</v>
+        <v>177595</v>
       </c>
       <c r="C464" t="s">
         <v>3203</v>
@@ -45941,7 +45941,7 @@
         <v>56150</v>
       </c>
       <c r="B465" t="n">
-        <v>146288</v>
+        <v>177596</v>
       </c>
       <c r="C465" t="s">
         <v>3212</v>
@@ -46154,7 +46154,7 @@
         <v>56150</v>
       </c>
       <c r="B468" t="n">
-        <v>146289</v>
+        <v>177597</v>
       </c>
       <c r="C468" t="s">
         <v>3228</v>
@@ -46296,7 +46296,7 @@
         <v>56150</v>
       </c>
       <c r="B470" t="n">
-        <v>146290</v>
+        <v>177598</v>
       </c>
       <c r="C470" t="s">
         <v>3238</v>
@@ -46367,7 +46367,7 @@
         <v>56150</v>
       </c>
       <c r="B471" t="n">
-        <v>146291</v>
+        <v>177599</v>
       </c>
       <c r="C471" t="s">
         <v>3243</v>
@@ -46505,7 +46505,7 @@
         <v>56150</v>
       </c>
       <c r="B473" t="n">
-        <v>146292</v>
+        <v>177600</v>
       </c>
       <c r="C473" t="s">
         <v>3255</v>
@@ -46651,7 +46651,7 @@
         <v>56150</v>
       </c>
       <c r="B475" t="n">
-        <v>146293</v>
+        <v>177601</v>
       </c>
       <c r="C475" t="s">
         <v>3272</v>
@@ -46860,7 +46860,7 @@
         <v>56150</v>
       </c>
       <c r="B478" t="n">
-        <v>146294</v>
+        <v>177602</v>
       </c>
       <c r="C478" t="s">
         <v>3290</v>
@@ -46931,7 +46931,7 @@
         <v>56150</v>
       </c>
       <c r="B479" t="n">
-        <v>146295</v>
+        <v>177603</v>
       </c>
       <c r="C479" t="s">
         <v>3296</v>
@@ -47140,7 +47140,7 @@
         <v>56150</v>
       </c>
       <c r="B482" t="n">
-        <v>146296</v>
+        <v>177604</v>
       </c>
       <c r="C482" t="s">
         <v>3317</v>
@@ -47215,7 +47215,7 @@
         <v>56150</v>
       </c>
       <c r="B483" t="n">
-        <v>146297</v>
+        <v>177605</v>
       </c>
       <c r="C483" t="s">
         <v>3327</v>
@@ -47286,7 +47286,7 @@
         <v>56150</v>
       </c>
       <c r="B484" t="n">
-        <v>146298</v>
+        <v>177606</v>
       </c>
       <c r="C484" t="s">
         <v>3334</v>
@@ -47428,7 +47428,7 @@
         <v>56150</v>
       </c>
       <c r="B486" t="n">
-        <v>146299</v>
+        <v>177607</v>
       </c>
       <c r="C486" t="s">
         <v>3347</v>
@@ -47499,7 +47499,7 @@
         <v>56150</v>
       </c>
       <c r="B487" t="n">
-        <v>146300</v>
+        <v>177608</v>
       </c>
       <c r="C487" t="s">
         <v>3355</v>
@@ -47566,7 +47566,7 @@
         <v>56150</v>
       </c>
       <c r="B488" t="n">
-        <v>146301</v>
+        <v>177609</v>
       </c>
       <c r="C488" t="s">
         <v>3362</v>
@@ -47641,7 +47641,7 @@
         <v>56150</v>
       </c>
       <c r="B489" t="n">
-        <v>146302</v>
+        <v>177610</v>
       </c>
       <c r="C489" t="s">
         <v>3371</v>
@@ -47716,7 +47716,7 @@
         <v>56150</v>
       </c>
       <c r="B490" t="n">
-        <v>146303</v>
+        <v>177611</v>
       </c>
       <c r="C490" t="s">
         <v>3379</v>
@@ -47781,7 +47781,7 @@
         <v>56150</v>
       </c>
       <c r="B491" t="n">
-        <v>146304</v>
+        <v>177612</v>
       </c>
       <c r="C491" t="s">
         <v>3386</v>
@@ -47856,7 +47856,7 @@
         <v>56150</v>
       </c>
       <c r="B492" t="n">
-        <v>146305</v>
+        <v>177613</v>
       </c>
       <c r="C492" t="s">
         <v>3395</v>
@@ -47931,7 +47931,7 @@
         <v>56150</v>
       </c>
       <c r="B493" t="n">
-        <v>146306</v>
+        <v>177614</v>
       </c>
       <c r="C493" t="s">
         <v>3401</v>
@@ -48006,7 +48006,7 @@
         <v>56150</v>
       </c>
       <c r="B494" t="n">
-        <v>146307</v>
+        <v>177615</v>
       </c>
       <c r="C494" t="s">
         <v>3408</v>
@@ -48081,7 +48081,7 @@
         <v>56150</v>
       </c>
       <c r="B495" t="n">
-        <v>146308</v>
+        <v>177616</v>
       </c>
       <c r="C495" t="s">
         <v>3414</v>
@@ -48156,7 +48156,7 @@
         <v>56150</v>
       </c>
       <c r="B496" t="n">
-        <v>146309</v>
+        <v>177617</v>
       </c>
       <c r="C496" t="s">
         <v>3421</v>
@@ -48231,7 +48231,7 @@
         <v>56150</v>
       </c>
       <c r="B497" t="n">
-        <v>146310</v>
+        <v>177618</v>
       </c>
       <c r="C497" t="s">
         <v>3430</v>
@@ -48306,7 +48306,7 @@
         <v>56150</v>
       </c>
       <c r="B498" t="n">
-        <v>146311</v>
+        <v>177619</v>
       </c>
       <c r="C498" t="s">
         <v>3439</v>
@@ -48381,7 +48381,7 @@
         <v>56150</v>
       </c>
       <c r="B499" t="n">
-        <v>146312</v>
+        <v>177620</v>
       </c>
       <c r="C499" t="s">
         <v>3446</v>
@@ -48452,7 +48452,7 @@
         <v>56150</v>
       </c>
       <c r="B500" t="n">
-        <v>146313</v>
+        <v>177621</v>
       </c>
       <c r="C500" t="s">
         <v>3451</v>
@@ -48523,7 +48523,7 @@
         <v>56150</v>
       </c>
       <c r="B501" t="n">
-        <v>146314</v>
+        <v>177622</v>
       </c>
       <c r="C501" t="s">
         <v>3458</v>
@@ -48673,7 +48673,7 @@
         <v>56150</v>
       </c>
       <c r="B503" t="n">
-        <v>146315</v>
+        <v>177623</v>
       </c>
       <c r="C503" t="s">
         <v>3471</v>
@@ -48748,7 +48748,7 @@
         <v>56150</v>
       </c>
       <c r="B504" t="n">
-        <v>146316</v>
+        <v>177624</v>
       </c>
       <c r="C504" t="s">
         <v>3481</v>
@@ -48823,7 +48823,7 @@
         <v>56150</v>
       </c>
       <c r="B505" t="n">
-        <v>146317</v>
+        <v>177625</v>
       </c>
       <c r="C505" t="s">
         <v>3490</v>
@@ -48965,7 +48965,7 @@
         <v>56150</v>
       </c>
       <c r="B507" t="n">
-        <v>146318</v>
+        <v>177626</v>
       </c>
       <c r="C507" t="s">
         <v>3505</v>
@@ -49115,7 +49115,7 @@
         <v>56150</v>
       </c>
       <c r="B509" t="n">
-        <v>146319</v>
+        <v>177627</v>
       </c>
       <c r="C509" t="s">
         <v>3521</v>
@@ -49180,7 +49180,7 @@
         <v>56150</v>
       </c>
       <c r="B510" t="n">
-        <v>146320</v>
+        <v>177628</v>
       </c>
       <c r="C510" t="s">
         <v>3531</v>
@@ -49330,7 +49330,7 @@
         <v>56150</v>
       </c>
       <c r="B512" t="n">
-        <v>146321</v>
+        <v>177629</v>
       </c>
       <c r="C512" t="s">
         <v>3545</v>
@@ -49405,7 +49405,7 @@
         <v>56150</v>
       </c>
       <c r="B513" t="n">
-        <v>146322</v>
+        <v>177630</v>
       </c>
       <c r="C513" t="s">
         <v>3553</v>
@@ -49480,7 +49480,7 @@
         <v>56150</v>
       </c>
       <c r="B514" t="n">
-        <v>146323</v>
+        <v>177631</v>
       </c>
       <c r="C514" t="s">
         <v>3560</v>
@@ -49555,7 +49555,7 @@
         <v>56150</v>
       </c>
       <c r="B515" t="n">
-        <v>146324</v>
+        <v>177632</v>
       </c>
       <c r="C515" t="s">
         <v>3567</v>
@@ -49630,7 +49630,7 @@
         <v>56150</v>
       </c>
       <c r="B516" t="n">
-        <v>146325</v>
+        <v>177633</v>
       </c>
       <c r="C516" t="s">
         <v>3577</v>
@@ -49705,7 +49705,7 @@
         <v>56150</v>
       </c>
       <c r="B517" t="n">
-        <v>146326</v>
+        <v>177634</v>
       </c>
       <c r="C517" t="s">
         <v>3584</v>
@@ -49855,7 +49855,7 @@
         <v>56150</v>
       </c>
       <c r="B519" t="n">
-        <v>146327</v>
+        <v>177635</v>
       </c>
       <c r="C519" t="s">
         <v>3599</v>
@@ -49930,7 +49930,7 @@
         <v>56150</v>
       </c>
       <c r="B520" t="n">
-        <v>146328</v>
+        <v>177636</v>
       </c>
       <c r="C520" t="s">
         <v>3606</v>
@@ -50005,7 +50005,7 @@
         <v>56150</v>
       </c>
       <c r="B521" t="n">
-        <v>146329</v>
+        <v>177637</v>
       </c>
       <c r="C521" t="s">
         <v>3613</v>
@@ -50080,7 +50080,7 @@
         <v>56150</v>
       </c>
       <c r="B522" t="n">
-        <v>146330</v>
+        <v>177638</v>
       </c>
       <c r="C522" t="s">
         <v>3622</v>
@@ -50155,7 +50155,7 @@
         <v>56150</v>
       </c>
       <c r="B523" t="n">
-        <v>146331</v>
+        <v>177639</v>
       </c>
       <c r="C523" t="s">
         <v>3632</v>
@@ -50230,7 +50230,7 @@
         <v>56150</v>
       </c>
       <c r="B524" t="n">
-        <v>146332</v>
+        <v>177640</v>
       </c>
       <c r="C524" t="s">
         <v>3641</v>
@@ -50305,7 +50305,7 @@
         <v>56150</v>
       </c>
       <c r="B525" t="n">
-        <v>146333</v>
+        <v>177641</v>
       </c>
       <c r="C525" t="s">
         <v>3651</v>
@@ -50376,7 +50376,7 @@
         <v>56150</v>
       </c>
       <c r="B526" t="n">
-        <v>146334</v>
+        <v>177642</v>
       </c>
       <c r="C526" t="s">
         <v>3657</v>
@@ -50518,7 +50518,7 @@
         <v>56150</v>
       </c>
       <c r="B528" t="n">
-        <v>146335</v>
+        <v>177643</v>
       </c>
       <c r="C528" t="s">
         <v>3668</v>
@@ -50658,7 +50658,7 @@
         <v>56150</v>
       </c>
       <c r="B530" t="n">
-        <v>146336</v>
+        <v>177644</v>
       </c>
       <c r="C530" t="s">
         <v>3681</v>
@@ -50725,7 +50725,7 @@
         <v>56150</v>
       </c>
       <c r="B531" t="n">
-        <v>146337</v>
+        <v>177645</v>
       </c>
       <c r="C531" t="s">
         <v>3687</v>
@@ -50796,7 +50796,7 @@
         <v>56150</v>
       </c>
       <c r="B532" t="n">
-        <v>146338</v>
+        <v>177646</v>
       </c>
       <c r="C532" t="s">
         <v>3694</v>
@@ -50871,7 +50871,7 @@
         <v>56150</v>
       </c>
       <c r="B533" t="n">
-        <v>146339</v>
+        <v>177647</v>
       </c>
       <c r="C533" t="s">
         <v>3702</v>
@@ -50942,7 +50942,7 @@
         <v>56150</v>
       </c>
       <c r="B534" t="n">
-        <v>146340</v>
+        <v>177648</v>
       </c>
       <c r="C534" t="s">
         <v>3709</v>
@@ -51013,7 +51013,7 @@
         <v>56150</v>
       </c>
       <c r="B535" t="n">
-        <v>146341</v>
+        <v>177649</v>
       </c>
       <c r="C535" t="s">
         <v>3717</v>
@@ -51084,7 +51084,7 @@
         <v>56150</v>
       </c>
       <c r="B536" t="n">
-        <v>146342</v>
+        <v>177650</v>
       </c>
       <c r="C536" t="s">
         <v>3724</v>
@@ -51155,7 +51155,7 @@
         <v>56150</v>
       </c>
       <c r="B537" t="n">
-        <v>146343</v>
+        <v>177651</v>
       </c>
       <c r="C537" t="s">
         <v>3732</v>
@@ -51293,7 +51293,7 @@
         <v>56150</v>
       </c>
       <c r="B539" t="n">
-        <v>146344</v>
+        <v>177652</v>
       </c>
       <c r="C539" t="s">
         <v>3744</v>
@@ -51364,7 +51364,7 @@
         <v>56150</v>
       </c>
       <c r="B540" t="n">
-        <v>146345</v>
+        <v>177653</v>
       </c>
       <c r="C540" t="s">
         <v>3751</v>
@@ -51435,7 +51435,7 @@
         <v>56150</v>
       </c>
       <c r="B541" t="n">
-        <v>146346</v>
+        <v>177654</v>
       </c>
       <c r="C541" t="s">
         <v>3757</v>
@@ -51506,7 +51506,7 @@
         <v>56150</v>
       </c>
       <c r="B542" t="n">
-        <v>146347</v>
+        <v>177655</v>
       </c>
       <c r="C542" t="s">
         <v>3764</v>
@@ -51577,7 +51577,7 @@
         <v>56150</v>
       </c>
       <c r="B543" t="n">
-        <v>146348</v>
+        <v>177656</v>
       </c>
       <c r="C543" t="s">
         <v>3770</v>
@@ -51648,7 +51648,7 @@
         <v>56150</v>
       </c>
       <c r="B544" t="n">
-        <v>146349</v>
+        <v>177657</v>
       </c>
       <c r="C544" t="s">
         <v>3776</v>
@@ -51723,7 +51723,7 @@
         <v>56150</v>
       </c>
       <c r="B545" t="n">
-        <v>146350</v>
+        <v>177658</v>
       </c>
       <c r="C545" t="s">
         <v>3785</v>
@@ -51794,7 +51794,7 @@
         <v>56150</v>
       </c>
       <c r="B546" t="n">
-        <v>146351</v>
+        <v>177659</v>
       </c>
       <c r="C546" t="s">
         <v>3791</v>
@@ -51865,7 +51865,7 @@
         <v>56150</v>
       </c>
       <c r="B547" t="n">
-        <v>146352</v>
+        <v>177660</v>
       </c>
       <c r="C547" t="s">
         <v>3799</v>
@@ -51936,7 +51936,7 @@
         <v>56150</v>
       </c>
       <c r="B548" t="n">
-        <v>146353</v>
+        <v>177661</v>
       </c>
       <c r="C548" t="s">
         <v>3805</v>
@@ -52003,7 +52003,7 @@
         <v>56150</v>
       </c>
       <c r="B549" t="n">
-        <v>146354</v>
+        <v>177662</v>
       </c>
       <c r="C549" t="s">
         <v>3812</v>
@@ -52074,7 +52074,7 @@
         <v>56150</v>
       </c>
       <c r="B550" t="n">
-        <v>146355</v>
+        <v>177663</v>
       </c>
       <c r="C550" t="s">
         <v>3818</v>
@@ -52145,7 +52145,7 @@
         <v>56150</v>
       </c>
       <c r="B551" t="n">
-        <v>146356</v>
+        <v>177664</v>
       </c>
       <c r="C551" t="s">
         <v>3825</v>
@@ -52216,7 +52216,7 @@
         <v>56150</v>
       </c>
       <c r="B552" t="n">
-        <v>146357</v>
+        <v>177665</v>
       </c>
       <c r="C552" t="s">
         <v>3832</v>
@@ -52287,7 +52287,7 @@
         <v>56150</v>
       </c>
       <c r="B553" t="n">
-        <v>146358</v>
+        <v>177666</v>
       </c>
       <c r="C553" t="s">
         <v>3840</v>
@@ -52358,7 +52358,7 @@
         <v>56150</v>
       </c>
       <c r="B554" t="n">
-        <v>146359</v>
+        <v>177667</v>
       </c>
       <c r="C554" t="s">
         <v>3845</v>
@@ -52425,7 +52425,7 @@
         <v>56150</v>
       </c>
       <c r="B555" t="n">
-        <v>146360</v>
+        <v>177668</v>
       </c>
       <c r="C555" t="s">
         <v>3852</v>
@@ -52492,7 +52492,7 @@
         <v>56150</v>
       </c>
       <c r="B556" t="n">
-        <v>146361</v>
+        <v>177669</v>
       </c>
       <c r="C556" t="s">
         <v>3859</v>
@@ -52693,7 +52693,7 @@
         <v>56150</v>
       </c>
       <c r="B559" t="n">
-        <v>146362</v>
+        <v>177670</v>
       </c>
       <c r="C559" t="s">
         <v>3880</v>
@@ -52760,7 +52760,7 @@
         <v>56150</v>
       </c>
       <c r="B560" t="n">
-        <v>146363</v>
+        <v>177671</v>
       </c>
       <c r="C560" t="s">
         <v>3888</v>
@@ -52827,7 +52827,7 @@
         <v>56150</v>
       </c>
       <c r="B561" t="n">
-        <v>146364</v>
+        <v>177672</v>
       </c>
       <c r="C561" t="s">
         <v>3894</v>
@@ -52894,7 +52894,7 @@
         <v>56150</v>
       </c>
       <c r="B562" t="n">
-        <v>146365</v>
+        <v>177673</v>
       </c>
       <c r="C562" t="s">
         <v>3900</v>
@@ -52961,7 +52961,7 @@
         <v>56150</v>
       </c>
       <c r="B563" t="n">
-        <v>146366</v>
+        <v>177674</v>
       </c>
       <c r="C563" t="s">
         <v>3907</v>
@@ -53028,7 +53028,7 @@
         <v>56150</v>
       </c>
       <c r="B564" t="n">
-        <v>146367</v>
+        <v>177675</v>
       </c>
       <c r="C564" t="s">
         <v>3913</v>
@@ -53170,7 +53170,7 @@
         <v>56150</v>
       </c>
       <c r="B566" t="n">
-        <v>146368</v>
+        <v>177676</v>
       </c>
       <c r="C566" t="s">
         <v>3928</v>
@@ -53241,7 +53241,7 @@
         <v>56150</v>
       </c>
       <c r="B567" t="n">
-        <v>146369</v>
+        <v>177677</v>
       </c>
       <c r="C567" t="s">
         <v>3936</v>
@@ -53312,7 +53312,7 @@
         <v>56150</v>
       </c>
       <c r="B568" t="n">
-        <v>146370</v>
+        <v>177678</v>
       </c>
       <c r="C568" t="s">
         <v>3943</v>
@@ -53383,7 +53383,7 @@
         <v>56150</v>
       </c>
       <c r="B569" t="n">
-        <v>146371</v>
+        <v>177679</v>
       </c>
       <c r="C569" t="s">
         <v>3950</v>
@@ -53454,7 +53454,7 @@
         <v>56150</v>
       </c>
       <c r="B570" t="n">
-        <v>146372</v>
+        <v>177680</v>
       </c>
       <c r="C570" t="s">
         <v>3958</v>
@@ -53525,7 +53525,7 @@
         <v>56150</v>
       </c>
       <c r="B571" t="n">
-        <v>146373</v>
+        <v>177681</v>
       </c>
       <c r="C571" t="s">
         <v>3965</v>
@@ -53596,7 +53596,7 @@
         <v>56150</v>
       </c>
       <c r="B572" t="n">
-        <v>146374</v>
+        <v>177682</v>
       </c>
       <c r="C572" t="s">
         <v>3971</v>
@@ -53667,7 +53667,7 @@
         <v>56150</v>
       </c>
       <c r="B573" t="n">
-        <v>146375</v>
+        <v>177683</v>
       </c>
       <c r="C573" t="s">
         <v>3979</v>
@@ -53738,7 +53738,7 @@
         <v>56150</v>
       </c>
       <c r="B574" t="n">
-        <v>146376</v>
+        <v>177684</v>
       </c>
       <c r="C574" t="s">
         <v>3986</v>
@@ -53809,7 +53809,7 @@
         <v>56150</v>
       </c>
       <c r="B575" t="n">
-        <v>146377</v>
+        <v>177685</v>
       </c>
       <c r="C575" t="s">
         <v>3994</v>
@@ -53880,7 +53880,7 @@
         <v>56150</v>
       </c>
       <c r="B576" t="n">
-        <v>146378</v>
+        <v>177686</v>
       </c>
       <c r="C576" t="s">
         <v>4001</v>
@@ -53951,7 +53951,7 @@
         <v>56150</v>
       </c>
       <c r="B577" t="n">
-        <v>146379</v>
+        <v>177687</v>
       </c>
       <c r="C577" t="s">
         <v>4008</v>
@@ -54022,7 +54022,7 @@
         <v>56150</v>
       </c>
       <c r="B578" t="n">
-        <v>146380</v>
+        <v>177688</v>
       </c>
       <c r="C578" t="s">
         <v>4014</v>
@@ -54164,7 +54164,7 @@
         <v>56150</v>
       </c>
       <c r="B580" t="n">
-        <v>146381</v>
+        <v>177689</v>
       </c>
       <c r="C580" t="s">
         <v>4027</v>
@@ -54231,7 +54231,7 @@
         <v>56150</v>
       </c>
       <c r="B581" t="n">
-        <v>146382</v>
+        <v>177690</v>
       </c>
       <c r="C581" t="s">
         <v>4034</v>
@@ -54302,7 +54302,7 @@
         <v>56150</v>
       </c>
       <c r="B582" t="n">
-        <v>146383</v>
+        <v>177691</v>
       </c>
       <c r="C582" t="s">
         <v>4042</v>
@@ -54373,7 +54373,7 @@
         <v>56150</v>
       </c>
       <c r="B583" t="n">
-        <v>146384</v>
+        <v>177692</v>
       </c>
       <c r="C583" t="s">
         <v>4048</v>
@@ -54444,7 +54444,7 @@
         <v>56150</v>
       </c>
       <c r="B584" t="n">
-        <v>146385</v>
+        <v>177693</v>
       </c>
       <c r="C584" t="s">
         <v>4055</v>
@@ -54586,7 +54586,7 @@
         <v>56150</v>
       </c>
       <c r="B586" t="n">
-        <v>146386</v>
+        <v>177694</v>
       </c>
       <c r="C586" t="s">
         <v>4070</v>
@@ -54657,7 +54657,7 @@
         <v>56150</v>
       </c>
       <c r="B587" t="n">
-        <v>146387</v>
+        <v>177695</v>
       </c>
       <c r="C587" t="s">
         <v>4078</v>
@@ -54724,7 +54724,7 @@
         <v>56150</v>
       </c>
       <c r="B588" t="n">
-        <v>146388</v>
+        <v>177696</v>
       </c>
       <c r="C588" t="s">
         <v>4085</v>
@@ -54795,7 +54795,7 @@
         <v>56150</v>
       </c>
       <c r="B589" t="n">
-        <v>146389</v>
+        <v>177697</v>
       </c>
       <c r="C589" t="s">
         <v>4092</v>
@@ -55008,7 +55008,7 @@
         <v>56150</v>
       </c>
       <c r="B592" t="n">
-        <v>146390</v>
+        <v>177698</v>
       </c>
       <c r="C592" t="s">
         <v>4113</v>
@@ -55079,7 +55079,7 @@
         <v>56150</v>
       </c>
       <c r="B593" t="n">
-        <v>146391</v>
+        <v>177699</v>
       </c>
       <c r="C593" t="s">
         <v>4120</v>
@@ -55150,7 +55150,7 @@
         <v>56150</v>
       </c>
       <c r="B594" t="n">
-        <v>146392</v>
+        <v>177700</v>
       </c>
       <c r="C594" t="s">
         <v>4127</v>
@@ -55221,7 +55221,7 @@
         <v>56150</v>
       </c>
       <c r="B595" t="n">
-        <v>146393</v>
+        <v>177701</v>
       </c>
       <c r="C595" t="s">
         <v>4133</v>
@@ -55292,7 +55292,7 @@
         <v>56150</v>
       </c>
       <c r="B596" t="n">
-        <v>146394</v>
+        <v>177702</v>
       </c>
       <c r="C596" t="s">
         <v>4140</v>
@@ -55363,7 +55363,7 @@
         <v>56150</v>
       </c>
       <c r="B597" t="n">
-        <v>146395</v>
+        <v>177703</v>
       </c>
       <c r="C597" t="s">
         <v>4147</v>
